--- a/Docs/Conversion Map - Yoel Geva.xlsx
+++ b/Docs/Conversion Map - Yoel Geva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\hanna\Documents\עבודה\HolisticCRM\Zoho WorkDrive-20230927-163521051\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\hanna\Documents\work\holisticcrm-data-migration\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126E2D90-721F-4F5A-A434-439BE637643A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B86FB-6B9C-42F9-A88A-3419AD424FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מודולים" sheetId="1" r:id="rId1"/>
@@ -2600,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -10062,7 +10062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
